--- a/Datasets/BRT.xlsx
+++ b/Datasets/BRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.shabani\Documents\GitHub\Transit-Dashboard\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF6748-2A4F-4E6A-A421-C1AA12B4558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E33BA-68DF-4303-958E-884E65BDF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1335"/>
+  <dimension ref="A1:AF1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B287" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25499,51 +25499,67 @@
       <c r="AF300" s="49"/>
     </row>
     <row r="301" spans="1:32">
+      <c r="AB301" s="54"/>
       <c r="AC301" s="54"/>
     </row>
     <row r="302" spans="1:32">
+      <c r="AB302" s="54"/>
       <c r="AC302" s="54"/>
     </row>
     <row r="303" spans="1:32">
+      <c r="AB303" s="54"/>
       <c r="AC303" s="54"/>
     </row>
     <row r="304" spans="1:32">
+      <c r="AB304" s="54"/>
       <c r="AC304" s="54"/>
     </row>
     <row r="305" spans="28:29">
+      <c r="AB305" s="54"/>
       <c r="AC305" s="54"/>
     </row>
     <row r="306" spans="28:29">
+      <c r="AB306" s="54"/>
       <c r="AC306" s="54"/>
     </row>
     <row r="307" spans="28:29">
+      <c r="AB307" s="54"/>
       <c r="AC307" s="54"/>
     </row>
     <row r="308" spans="28:29">
+      <c r="AB308" s="54"/>
       <c r="AC308" s="54"/>
     </row>
     <row r="309" spans="28:29">
+      <c r="AB309" s="54"/>
       <c r="AC309" s="54"/>
     </row>
     <row r="310" spans="28:29">
+      <c r="AB310" s="54"/>
       <c r="AC310" s="54"/>
     </row>
     <row r="311" spans="28:29">
+      <c r="AB311" s="54"/>
       <c r="AC311" s="54"/>
     </row>
     <row r="312" spans="28:29">
+      <c r="AB312" s="54"/>
       <c r="AC312" s="54"/>
     </row>
     <row r="313" spans="28:29">
+      <c r="AB313" s="54"/>
       <c r="AC313" s="54"/>
     </row>
     <row r="314" spans="28:29">
+      <c r="AB314" s="54"/>
       <c r="AC314" s="54"/>
     </row>
     <row r="315" spans="28:29">
+      <c r="AB315" s="54"/>
       <c r="AC315" s="54"/>
     </row>
     <row r="316" spans="28:29">
+      <c r="AB316" s="54"/>
       <c r="AC316" s="54"/>
     </row>
     <row r="317" spans="28:29">
@@ -26007,186 +26023,150 @@
       <c r="AC431" s="54"/>
     </row>
     <row r="432" spans="28:29">
-      <c r="AB432" s="54"/>
       <c r="AC432" s="54"/>
     </row>
-    <row r="433" spans="28:29">
-      <c r="AB433" s="54"/>
+    <row r="433" spans="29:29">
       <c r="AC433" s="54"/>
     </row>
-    <row r="434" spans="28:29">
-      <c r="AB434" s="54"/>
+    <row r="434" spans="29:29">
       <c r="AC434" s="54"/>
     </row>
-    <row r="435" spans="28:29">
-      <c r="AB435" s="54"/>
+    <row r="435" spans="29:29">
       <c r="AC435" s="54"/>
     </row>
-    <row r="436" spans="28:29">
-      <c r="AB436" s="54"/>
+    <row r="436" spans="29:29">
       <c r="AC436" s="54"/>
     </row>
-    <row r="437" spans="28:29">
-      <c r="AB437" s="54"/>
+    <row r="437" spans="29:29">
       <c r="AC437" s="54"/>
     </row>
-    <row r="438" spans="28:29">
-      <c r="AB438" s="54"/>
+    <row r="438" spans="29:29">
       <c r="AC438" s="54"/>
     </row>
-    <row r="439" spans="28:29">
-      <c r="AB439" s="54"/>
+    <row r="439" spans="29:29">
       <c r="AC439" s="54"/>
     </row>
-    <row r="440" spans="28:29">
-      <c r="AB440" s="54"/>
+    <row r="440" spans="29:29">
       <c r="AC440" s="54"/>
     </row>
-    <row r="441" spans="28:29">
-      <c r="AB441" s="54"/>
+    <row r="441" spans="29:29">
       <c r="AC441" s="54"/>
     </row>
-    <row r="442" spans="28:29">
-      <c r="AB442" s="54"/>
+    <row r="442" spans="29:29">
       <c r="AC442" s="54"/>
     </row>
-    <row r="443" spans="28:29">
-      <c r="AB443" s="54"/>
+    <row r="443" spans="29:29">
       <c r="AC443" s="54"/>
     </row>
-    <row r="444" spans="28:29">
-      <c r="AB444" s="54"/>
+    <row r="444" spans="29:29">
       <c r="AC444" s="54"/>
     </row>
-    <row r="445" spans="28:29">
-      <c r="AB445" s="54"/>
+    <row r="445" spans="29:29">
       <c r="AC445" s="54"/>
     </row>
-    <row r="446" spans="28:29">
-      <c r="AB446" s="54"/>
+    <row r="446" spans="29:29">
       <c r="AC446" s="54"/>
     </row>
-    <row r="447" spans="28:29">
-      <c r="AB447" s="54"/>
+    <row r="447" spans="29:29">
       <c r="AC447" s="54"/>
     </row>
-    <row r="448" spans="28:29">
-      <c r="AB448" s="54"/>
+    <row r="448" spans="29:29">
       <c r="AC448" s="54"/>
     </row>
-    <row r="449" spans="28:29">
-      <c r="AB449" s="54"/>
+    <row r="449" spans="29:29">
       <c r="AC449" s="54"/>
     </row>
-    <row r="450" spans="28:29">
-      <c r="AB450" s="54"/>
+    <row r="450" spans="29:29">
       <c r="AC450" s="54"/>
     </row>
-    <row r="451" spans="28:29">
-      <c r="AB451" s="54"/>
+    <row r="451" spans="29:29">
       <c r="AC451" s="54"/>
     </row>
-    <row r="452" spans="28:29">
-      <c r="AB452" s="54"/>
+    <row r="452" spans="29:29">
       <c r="AC452" s="54"/>
     </row>
-    <row r="453" spans="28:29">
-      <c r="AB453" s="54"/>
+    <row r="453" spans="29:29">
       <c r="AC453" s="54"/>
     </row>
-    <row r="454" spans="28:29">
-      <c r="AB454" s="54"/>
+    <row r="454" spans="29:29">
       <c r="AC454" s="54"/>
     </row>
-    <row r="455" spans="28:29">
-      <c r="AB455" s="54"/>
+    <row r="455" spans="29:29">
       <c r="AC455" s="54"/>
     </row>
-    <row r="456" spans="28:29">
-      <c r="AB456" s="54"/>
+    <row r="456" spans="29:29">
       <c r="AC456" s="54"/>
     </row>
-    <row r="457" spans="28:29">
-      <c r="AB457" s="54"/>
+    <row r="457" spans="29:29">
       <c r="AC457" s="54"/>
     </row>
-    <row r="458" spans="28:29">
-      <c r="AB458" s="54"/>
+    <row r="458" spans="29:29">
       <c r="AC458" s="54"/>
     </row>
-    <row r="459" spans="28:29">
-      <c r="AB459" s="54"/>
+    <row r="459" spans="29:29">
       <c r="AC459" s="54"/>
     </row>
-    <row r="460" spans="28:29">
-      <c r="AB460" s="54"/>
+    <row r="460" spans="29:29">
       <c r="AC460" s="54"/>
     </row>
-    <row r="461" spans="28:29">
-      <c r="AB461" s="54"/>
+    <row r="461" spans="29:29">
       <c r="AC461" s="54"/>
     </row>
-    <row r="462" spans="28:29">
-      <c r="AB462" s="54"/>
+    <row r="462" spans="29:29">
       <c r="AC462" s="54"/>
     </row>
-    <row r="463" spans="28:29">
-      <c r="AB463" s="54"/>
+    <row r="463" spans="29:29">
       <c r="AC463" s="54"/>
     </row>
-    <row r="464" spans="28:29">
-      <c r="AB464" s="54"/>
+    <row r="464" spans="29:29">
       <c r="AC464" s="54"/>
     </row>
-    <row r="465" spans="28:29">
-      <c r="AB465" s="54"/>
+    <row r="465" spans="29:29">
       <c r="AC465" s="54"/>
     </row>
-    <row r="466" spans="28:29">
-      <c r="AB466" s="54"/>
+    <row r="466" spans="29:29">
       <c r="AC466" s="54"/>
     </row>
-    <row r="467" spans="28:29">
-      <c r="AB467" s="54"/>
+    <row r="467" spans="29:29">
       <c r="AC467" s="54"/>
     </row>
-    <row r="468" spans="28:29">
+    <row r="468" spans="29:29">
       <c r="AC468" s="54"/>
     </row>
-    <row r="469" spans="28:29">
+    <row r="469" spans="29:29">
       <c r="AC469" s="54"/>
     </row>
-    <row r="470" spans="28:29">
+    <row r="470" spans="29:29">
       <c r="AC470" s="54"/>
     </row>
-    <row r="471" spans="28:29">
+    <row r="471" spans="29:29">
       <c r="AC471" s="54"/>
     </row>
-    <row r="472" spans="28:29">
+    <row r="472" spans="29:29">
       <c r="AC472" s="54"/>
     </row>
-    <row r="473" spans="28:29">
+    <row r="473" spans="29:29">
       <c r="AC473" s="54"/>
     </row>
-    <row r="474" spans="28:29">
+    <row r="474" spans="29:29">
       <c r="AC474" s="54"/>
     </row>
-    <row r="475" spans="28:29">
+    <row r="475" spans="29:29">
       <c r="AC475" s="54"/>
     </row>
-    <row r="476" spans="28:29">
+    <row r="476" spans="29:29">
       <c r="AC476" s="54"/>
     </row>
-    <row r="477" spans="28:29">
+    <row r="477" spans="29:29">
       <c r="AC477" s="54"/>
     </row>
-    <row r="478" spans="28:29">
+    <row r="478" spans="29:29">
       <c r="AC478" s="54"/>
     </row>
-    <row r="479" spans="28:29">
+    <row r="479" spans="29:29">
       <c r="AC479" s="54"/>
     </row>
-    <row r="480" spans="28:29">
+    <row r="480" spans="29:29">
       <c r="AC480" s="54"/>
     </row>
     <row r="481" spans="29:29">
@@ -28645,114 +28625,6 @@
     </row>
     <row r="1299" spans="29:29">
       <c r="AC1299" s="54"/>
-    </row>
-    <row r="1300" spans="29:29">
-      <c r="AC1300" s="54"/>
-    </row>
-    <row r="1301" spans="29:29">
-      <c r="AC1301" s="54"/>
-    </row>
-    <row r="1302" spans="29:29">
-      <c r="AC1302" s="54"/>
-    </row>
-    <row r="1303" spans="29:29">
-      <c r="AC1303" s="54"/>
-    </row>
-    <row r="1304" spans="29:29">
-      <c r="AC1304" s="54"/>
-    </row>
-    <row r="1305" spans="29:29">
-      <c r="AC1305" s="54"/>
-    </row>
-    <row r="1306" spans="29:29">
-      <c r="AC1306" s="54"/>
-    </row>
-    <row r="1307" spans="29:29">
-      <c r="AC1307" s="54"/>
-    </row>
-    <row r="1308" spans="29:29">
-      <c r="AC1308" s="54"/>
-    </row>
-    <row r="1309" spans="29:29">
-      <c r="AC1309" s="54"/>
-    </row>
-    <row r="1310" spans="29:29">
-      <c r="AC1310" s="54"/>
-    </row>
-    <row r="1311" spans="29:29">
-      <c r="AC1311" s="54"/>
-    </row>
-    <row r="1312" spans="29:29">
-      <c r="AC1312" s="54"/>
-    </row>
-    <row r="1313" spans="29:29">
-      <c r="AC1313" s="54"/>
-    </row>
-    <row r="1314" spans="29:29">
-      <c r="AC1314" s="54"/>
-    </row>
-    <row r="1315" spans="29:29">
-      <c r="AC1315" s="54"/>
-    </row>
-    <row r="1316" spans="29:29">
-      <c r="AC1316" s="54"/>
-    </row>
-    <row r="1317" spans="29:29">
-      <c r="AC1317" s="54"/>
-    </row>
-    <row r="1318" spans="29:29">
-      <c r="AC1318" s="54"/>
-    </row>
-    <row r="1319" spans="29:29">
-      <c r="AC1319" s="54"/>
-    </row>
-    <row r="1320" spans="29:29">
-      <c r="AC1320" s="54"/>
-    </row>
-    <row r="1321" spans="29:29">
-      <c r="AC1321" s="54"/>
-    </row>
-    <row r="1322" spans="29:29">
-      <c r="AC1322" s="54"/>
-    </row>
-    <row r="1323" spans="29:29">
-      <c r="AC1323" s="54"/>
-    </row>
-    <row r="1324" spans="29:29">
-      <c r="AC1324" s="54"/>
-    </row>
-    <row r="1325" spans="29:29">
-      <c r="AC1325" s="54"/>
-    </row>
-    <row r="1326" spans="29:29">
-      <c r="AC1326" s="54"/>
-    </row>
-    <row r="1327" spans="29:29">
-      <c r="AC1327" s="54"/>
-    </row>
-    <row r="1328" spans="29:29">
-      <c r="AC1328" s="54"/>
-    </row>
-    <row r="1329" spans="29:29">
-      <c r="AC1329" s="54"/>
-    </row>
-    <row r="1330" spans="29:29">
-      <c r="AC1330" s="54"/>
-    </row>
-    <row r="1331" spans="29:29">
-      <c r="AC1331" s="54"/>
-    </row>
-    <row r="1332" spans="29:29">
-      <c r="AC1332" s="54"/>
-    </row>
-    <row r="1333" spans="29:29">
-      <c r="AC1333" s="54"/>
-    </row>
-    <row r="1334" spans="29:29">
-      <c r="AC1334" s="54"/>
-    </row>
-    <row r="1335" spans="29:29">
-      <c r="AC1335" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Datasets/BRT.xlsx
+++ b/Datasets/BRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.shabani\Documents\GitHub\Transit-Dashboard\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E33BA-68DF-4303-958E-884E65BDF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147B635-C9F8-48FA-B0D3-7A38B2887ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4194,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B287" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView tabSelected="1" topLeftCell="K292" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="15">
-        <f>IFERROR(LEFT(Q2,FIND("k",Q2)-2)*1,0)</f>
+        <f t="shared" ref="U2:U65" si="0">IFERROR(LEFT(Q2,FIND("k",Q2)-2)*1,0)</f>
         <v>8</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="15">
-        <f t="shared" ref="U3:U66" si="0">IFERROR(LEFT(Q3,FIND("k",Q3)-2)*1,0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="V3" s="4"/>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="U4" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4" t="s">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="U8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="U12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="U14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -5364,7 +5364,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="U18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -5676,7 +5676,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -5752,7 +5752,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.2</v>
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="U28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.9</v>
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="U29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120.4</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
@@ -6736,7 +6736,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="U35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="U36" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="U37" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="U38" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="U40" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114.4</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="U41" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -7502,7 +7502,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -7578,7 +7578,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="U46" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="U47" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
@@ -7970,7 +7970,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="U50" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
@@ -8278,7 +8278,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4" t="s">
@@ -8356,7 +8356,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="U55" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="U57" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="U58" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="U61" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
@@ -9173,8 +9173,8 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="U66:U129" si="1">IFERROR(LEFT(Q66,FIND("k",Q66)-2)*1,0)</f>
+        <v>64.37</v>
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
@@ -9245,8 +9245,8 @@
       </c>
       <c r="T67" s="4"/>
       <c r="U67" s="15">
-        <f t="shared" ref="U67:U130" si="1">IFERROR(LEFT(Q67,FIND("k",Q67)-2)*1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>41.2</v>
       </c>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
@@ -9395,8 +9395,8 @@
         <v>785.7</v>
       </c>
       <c r="U69" s="15">
-        <f>ROUND(U$68*J69/($J$69+$J$70),2)</f>
-        <v>3.17</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
@@ -9469,8 +9469,8 @@
         <v>785.7</v>
       </c>
       <c r="U70" s="15">
-        <f>ROUND(U$68*J70/($J$69+$J$70),2)</f>
-        <v>7.83</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -9546,7 +9546,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="V71" s="4"/>
       <c r="W71" s="4" t="s">
@@ -9700,7 +9700,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.24</v>
       </c>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
@@ -9992,7 +9992,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.1</v>
       </c>
       <c r="V77" s="4"/>
       <c r="W77" s="4" t="s">
@@ -10072,7 +10072,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82.6</v>
       </c>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
@@ -10298,7 +10298,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
@@ -10450,7 +10450,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
@@ -10526,7 +10526,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="U88" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -10910,7 +10910,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89.6</v>
       </c>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
@@ -10982,7 +10982,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.14</v>
       </c>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
@@ -11136,7 +11136,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -11214,7 +11214,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
@@ -11291,8 +11291,8 @@
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="15">
-        <f>ROUND(U$93*J94/($J$94+$J$95),2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>72.7</v>
       </c>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
@@ -11367,8 +11367,8 @@
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="15">
-        <f>ROUND(U$93*J95/($J$94+$J$95),2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>72.7</v>
       </c>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
@@ -11438,7 +11438,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
@@ -11590,7 +11590,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="U99" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
@@ -11804,7 +11804,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
@@ -11884,7 +11884,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
@@ -11963,8 +11963,8 @@
       </c>
       <c r="T103" s="4"/>
       <c r="U103" s="15">
-        <f>ROUND(U$102*J103/($J$103+$J$104),2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17.7</v>
       </c>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
@@ -12041,8 +12041,8 @@
       </c>
       <c r="T104" s="4"/>
       <c r="U104" s="15">
-        <f>ROUND(U$102*J104/($J$103+$J$104),2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17.7</v>
       </c>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
@@ -12120,7 +12120,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
@@ -12348,7 +12348,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
@@ -12498,7 +12498,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
@@ -12722,7 +12722,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="U115" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="U116" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
@@ -13024,7 +13024,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
@@ -13760,7 +13760,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="T130" s="4"/>
       <c r="U130" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U130:U193" si="2">IFERROR(LEFT(Q130,FIND("k",Q130)-2)*1,0)</f>
         <v>0</v>
       </c>
       <c r="V130" s="4"/>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="T131" s="4"/>
       <c r="U131" s="15">
-        <f t="shared" ref="U131:U194" si="2">IFERROR(LEFT(Q131,FIND("k",Q131)-2)*1,0)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="V131" s="4"/>
@@ -14160,7 +14160,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
@@ -14362,7 +14362,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83.6</v>
       </c>
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
@@ -14431,8 +14431,8 @@
       </c>
       <c r="T138" s="4"/>
       <c r="U138" s="15">
-        <f>ROUND(U$137*J138/($J$138+$J$139),2)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>83.6</v>
       </c>
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
@@ -14499,8 +14499,8 @@
       </c>
       <c r="T139" s="4"/>
       <c r="U139" s="15">
-        <f>ROUND(U$137*J139/($J$138+$J$139),2)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>83.6</v>
       </c>
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
@@ -14568,7 +14568,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
@@ -14840,7 +14840,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
@@ -14970,7 +14970,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
@@ -15034,7 +15034,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
@@ -15096,7 +15096,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
@@ -15224,7 +15224,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
@@ -15498,7 +15498,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
@@ -17202,7 +17202,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
@@ -17336,7 +17336,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
@@ -17409,8 +17409,8 @@
       </c>
       <c r="T183" s="4"/>
       <c r="U183" s="15">
-        <f>ROUND(U$182*J183/($J$183+$J$184),2)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
@@ -17481,8 +17481,8 @@
       </c>
       <c r="T184" s="4"/>
       <c r="U184" s="15">
-        <f>ROUND(U$182*J184/($J$183+$J$184),2)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
@@ -17932,7 +17932,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
@@ -18058,7 +18058,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="T194" s="4"/>
       <c r="U194" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U194:U257" si="3">IFERROR(LEFT(Q194,FIND("k",Q194)-2)*1,0)</f>
         <v>17</v>
       </c>
       <c r="V194" s="4"/>
@@ -18191,7 +18191,7 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="U195" s="15">
-        <f t="shared" ref="U195:U249" si="3">IFERROR(LEFT(Q195,FIND("k",Q195)-2)*1,0)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="V195" s="4"/>
@@ -18390,7 +18390,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
@@ -18650,7 +18650,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
@@ -18716,7 +18716,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V203" s="4"/>
       <c r="W203" s="4"/>
@@ -18778,7 +18778,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
@@ -19448,9 +19448,9 @@
         <v>50</v>
       </c>
       <c r="T214" s="8"/>
-      <c r="U214" s="8">
+      <c r="U214" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="V214" s="18"/>
       <c r="W214" s="18"/>
@@ -19518,9 +19518,9 @@
         <v>78</v>
       </c>
       <c r="T215" s="8"/>
-      <c r="U215" s="8">
+      <c r="U215" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80.45</v>
       </c>
       <c r="V215" s="18"/>
       <c r="W215" s="18"/>
@@ -19586,7 +19586,7 @@
         <v>63</v>
       </c>
       <c r="T216" s="8"/>
-      <c r="U216" s="8">
+      <c r="U216" s="15">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>57</v>
       </c>
       <c r="T217" s="8"/>
-      <c r="U217" s="8">
+      <c r="U217" s="15">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -19728,9 +19728,9 @@
         <v>47</v>
       </c>
       <c r="T218" s="8"/>
-      <c r="U218" s="8">
+      <c r="U218" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="V218" s="18"/>
       <c r="W218" s="18"/>
@@ -19798,7 +19798,7 @@
         <v>56</v>
       </c>
       <c r="T219" s="8"/>
-      <c r="U219" s="8">
+      <c r="U219" s="15">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>24</v>
       </c>
       <c r="T220" s="8"/>
-      <c r="U220" s="8">
+      <c r="U220" s="15">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -19942,9 +19942,9 @@
         <v>97</v>
       </c>
       <c r="T221" s="8"/>
-      <c r="U221" s="8">
+      <c r="U221" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70.3</v>
       </c>
       <c r="V221" s="18"/>
       <c r="W221" s="18"/>
@@ -20016,7 +20016,7 @@
         <v>26</v>
       </c>
       <c r="T222" s="8"/>
-      <c r="U222" s="8">
+      <c r="U222" s="15">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>106</v>
       </c>
       <c r="T223" s="8"/>
-      <c r="U223" s="8">
+      <c r="U223" s="15">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>11</v>
       </c>
       <c r="T224" s="8"/>
-      <c r="U224" s="8">
+      <c r="U224" s="15">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>9</v>
       </c>
       <c r="T225" s="8"/>
-      <c r="U225" s="8">
+      <c r="U225" s="15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>24</v>
       </c>
       <c r="T226" s="8"/>
-      <c r="U226" s="8">
+      <c r="U226" s="15">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -20370,9 +20370,9 @@
         <v>66</v>
       </c>
       <c r="T227" s="8"/>
-      <c r="U227" s="8">
+      <c r="U227" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="V227" s="18"/>
       <c r="W227" s="18"/>
@@ -20444,7 +20444,7 @@
         <v>24</v>
       </c>
       <c r="T228" s="8"/>
-      <c r="U228" s="8">
+      <c r="U228" s="15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>29</v>
       </c>
       <c r="T229" s="8"/>
-      <c r="U229" s="8">
+      <c r="U229" s="15">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>15</v>
       </c>
       <c r="T230" s="8"/>
-      <c r="U230" s="8">
+      <c r="U230" s="15">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>22</v>
       </c>
       <c r="T231" s="8"/>
-      <c r="U231" s="8">
+      <c r="U231" s="15">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>28</v>
       </c>
       <c r="T232" s="8"/>
-      <c r="U232" s="8">
+      <c r="U232" s="15">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -20794,9 +20794,9 @@
         <v>21</v>
       </c>
       <c r="T233" s="8"/>
-      <c r="U233" s="8">
+      <c r="U233" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="V233" s="18"/>
       <c r="W233" s="18"/>
@@ -20864,9 +20864,9 @@
         <v>26</v>
       </c>
       <c r="T234" s="8"/>
-      <c r="U234" s="8">
+      <c r="U234" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="V234" s="18"/>
       <c r="W234" s="18"/>
@@ -20936,9 +20936,9 @@
       <c r="T235" s="8">
         <v>990</v>
       </c>
-      <c r="U235" s="8">
+      <c r="U235" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="V235" s="18"/>
       <c r="W235" s="18"/>
@@ -21010,9 +21010,9 @@
       <c r="T236" s="8">
         <v>839</v>
       </c>
-      <c r="U236" s="8">
+      <c r="U236" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="V236" s="18"/>
       <c r="W236" s="18"/>
@@ -21082,7 +21082,7 @@
       <c r="T237" s="8">
         <v>1050</v>
       </c>
-      <c r="U237" s="8">
+      <c r="U237" s="15">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -21154,7 +21154,7 @@
       <c r="T238" s="8">
         <v>1250</v>
       </c>
-      <c r="U238" s="8">
+      <c r="U238" s="15">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -21228,7 +21228,7 @@
       <c r="T239" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="U239" s="8">
+      <c r="U239" s="15">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -21296,9 +21296,9 @@
         <v>17</v>
       </c>
       <c r="T240" s="8"/>
-      <c r="U240" s="8">
+      <c r="U240" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="V240" s="24"/>
       <c r="W240" s="24"/>
@@ -21364,9 +21364,9 @@
         <v>14</v>
       </c>
       <c r="T241" s="8"/>
-      <c r="U241" s="8">
+      <c r="U241" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="V241" s="24"/>
       <c r="W241" s="24"/>
@@ -21436,9 +21436,9 @@
       <c r="T242" s="8">
         <v>1000</v>
       </c>
-      <c r="U242" s="8">
+      <c r="U242" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="V242" s="15"/>
       <c r="W242" s="15"/>
@@ -21510,9 +21510,9 @@
       <c r="T243" s="8">
         <v>613</v>
       </c>
-      <c r="U243" s="8">
+      <c r="U243" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="V243" s="15"/>
       <c r="W243" s="15"/>
@@ -21576,7 +21576,7 @@
       <c r="R244" s="8"/>
       <c r="S244" s="8"/>
       <c r="T244" s="8"/>
-      <c r="U244" s="8">
+      <c r="U244" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21638,7 +21638,7 @@
       <c r="R245" s="8"/>
       <c r="S245" s="8"/>
       <c r="T245" s="8"/>
-      <c r="U245" s="8">
+      <c r="U245" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21700,7 +21700,7 @@
       <c r="R246" s="8"/>
       <c r="S246" s="8"/>
       <c r="T246" s="8"/>
-      <c r="U246" s="8">
+      <c r="U246" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21762,7 +21762,7 @@
       <c r="R247" s="8"/>
       <c r="S247" s="8"/>
       <c r="T247" s="8"/>
-      <c r="U247" s="8">
+      <c r="U247" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21824,7 +21824,7 @@
       <c r="R248" s="8"/>
       <c r="S248" s="8"/>
       <c r="T248" s="8"/>
-      <c r="U248" s="8">
+      <c r="U248" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21886,7 +21886,7 @@
       <c r="R249" s="8"/>
       <c r="S249" s="8"/>
       <c r="T249" s="8"/>
-      <c r="U249" s="8">
+      <c r="U249" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21961,8 +21961,8 @@
       </c>
       <c r="T250" s="26"/>
       <c r="U250" s="15">
-        <f t="shared" ref="U250:U293" si="4">IFERROR(LEFT(Q250,FIND("k",Q250)-2)*1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>251.2</v>
       </c>
       <c r="V250" s="26">
         <v>1</v>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="T251" s="15"/>
       <c r="U251" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="V251" s="15"/>
@@ -22117,7 +22117,7 @@
       </c>
       <c r="T252" s="15"/>
       <c r="U252" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="V252" s="15"/>
@@ -22191,7 +22191,7 @@
       </c>
       <c r="T253" s="15"/>
       <c r="U253" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="V253" s="15"/>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="T254" s="9"/>
       <c r="U254" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="V254" s="9"/>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="T255" s="9"/>
       <c r="U255" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="V255" s="9"/>
@@ -22427,8 +22427,8 @@
       </c>
       <c r="T256" s="9"/>
       <c r="U256" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>126.46</v>
       </c>
       <c r="V256" s="9"/>
       <c r="W256" s="9"/>
@@ -22505,8 +22505,8 @@
       </c>
       <c r="T257" s="9"/>
       <c r="U257" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10.5</v>
       </c>
       <c r="V257" s="9"/>
       <c r="W257" s="9"/>
@@ -22579,7 +22579,7 @@
       </c>
       <c r="T258" s="9"/>
       <c r="U258" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U258:U300" si="4">IFERROR(LEFT(Q258,FIND("k",Q258)-2)*1,0)</f>
         <v>114</v>
       </c>
       <c r="V258" s="9"/>
@@ -23154,7 +23154,7 @@
       </c>
       <c r="U266" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45.32</v>
       </c>
       <c r="V266" s="9"/>
       <c r="W266" s="9"/>
@@ -23228,7 +23228,7 @@
       <c r="T267" s="9"/>
       <c r="U267" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="V267" s="9"/>
       <c r="W267" s="9"/>
@@ -23305,8 +23305,8 @@
       </c>
       <c r="T268" s="9"/>
       <c r="U268" s="15">
-        <f>ROUND(U$267*J268/($J$268+$J$269),2)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22.5</v>
       </c>
       <c r="V268" s="9"/>
       <c r="W268" s="9"/>
@@ -23381,8 +23381,8 @@
       </c>
       <c r="T269" s="9"/>
       <c r="U269" s="15">
-        <f>ROUND(U$267*J269/($J$268+$J$269),2)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22.5</v>
       </c>
       <c r="V269" s="9"/>
       <c r="W269" s="9"/>
@@ -23537,8 +23537,8 @@
       </c>
       <c r="T271" s="9"/>
       <c r="U271" s="15">
-        <f>ROUND(U$270*J271/($J$271+$J$272),2)</f>
-        <v>45.86</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="V271" s="9"/>
       <c r="W271" s="9"/>
@@ -23613,8 +23613,8 @@
       </c>
       <c r="T272" s="9"/>
       <c r="U272" s="15">
-        <f>ROUND(U$270*J272/($J$271+$J$272),2)</f>
-        <v>14.14</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="V272" s="9"/>
       <c r="W272" s="9"/>
@@ -24244,7 +24244,7 @@
       <c r="T281" s="18"/>
       <c r="U281" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V281" s="18"/>
       <c r="W281" s="18"/>
@@ -25099,7 +25099,7 @@
       </c>
       <c r="T294" s="18"/>
       <c r="U294" s="15">
-        <f t="shared" ref="U294:U300" si="5">IFERROR(LEFT(Q294,FIND("k",Q294)-2)*1,0)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="V294" s="18"/>
@@ -25163,7 +25163,7 @@
       </c>
       <c r="T295" s="18"/>
       <c r="U295" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="V295" s="18"/>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="T296" s="18"/>
       <c r="U296" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="V296" s="18"/>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="T297" s="18"/>
       <c r="U297" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="V297" s="18"/>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="T298" s="18"/>
       <c r="U298" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="V298" s="18"/>
@@ -25419,7 +25419,7 @@
       </c>
       <c r="T299" s="18"/>
       <c r="U299" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V299" s="18"/>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="T300" s="18"/>
       <c r="U300" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V300" s="18"/>

--- a/Datasets/BRT.xlsx
+++ b/Datasets/BRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.shabani\Documents\GitHub\Transit-Dashboard\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147B635-C9F8-48FA-B0D3-7A38B2887ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73EC30-5C26-4929-866F-4DE7450DBAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4194,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K292" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U300"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4367,7 +4367,6 @@
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="15">
-        <f t="shared" ref="U2:U65" si="0">IFERROR(LEFT(Q2,FIND("k",Q2)-2)*1,0)</f>
         <v>8</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -4453,7 +4452,6 @@
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="15">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="V3" s="4"/>
@@ -4527,7 +4525,6 @@
         <v>777</v>
       </c>
       <c r="U4" s="15">
-        <f t="shared" si="0"/>
         <v>18.3</v>
       </c>
       <c r="V4" s="4"/>
@@ -4611,7 +4608,6 @@
         <v>1027.3</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" si="0"/>
         <v>30.8</v>
       </c>
       <c r="V5" s="4"/>
@@ -4689,7 +4685,6 @@
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="15">
-        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="V6" s="4"/>
@@ -4757,7 +4752,6 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7" s="4"/>
@@ -4835,7 +4829,6 @@
         <v>1078</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
       <c r="V8" s="4"/>
@@ -4913,7 +4906,6 @@
         <v>1166.7</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="V9" s="4"/>
@@ -4979,7 +4971,6 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V10" s="4"/>
@@ -5053,7 +5044,6 @@
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="15">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="V11" s="4"/>
@@ -5129,7 +5119,6 @@
         <v>600</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="0"/>
         <v>21.1</v>
       </c>
       <c r="V12" s="4"/>
@@ -5209,7 +5198,6 @@
         <v>350.3</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="V13" s="4"/>
@@ -5287,7 +5275,6 @@
         <v>588.9</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
       <c r="V14" s="4"/>
@@ -5363,7 +5350,6 @@
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="15">
-        <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
       <c r="V15" s="4"/>
@@ -5439,7 +5425,6 @@
         <v>461.5</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="V16" s="4"/>
@@ -5517,7 +5502,6 @@
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="15">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="V17" s="4"/>
@@ -5597,7 +5581,6 @@
         <v>380</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="V18" s="4"/>
@@ -5675,7 +5658,6 @@
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="15">
-        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="V19" s="4"/>
@@ -5751,7 +5733,6 @@
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="15">
-        <f t="shared" si="0"/>
         <v>93.2</v>
       </c>
       <c r="V20" s="4"/>
@@ -5829,7 +5810,6 @@
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="15">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="V21" s="4"/>
@@ -5905,7 +5885,6 @@
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="15">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="V22" s="4"/>
@@ -5981,7 +5960,6 @@
         <v>1000</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="V23" s="4"/>
@@ -6057,7 +6035,6 @@
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="15">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="V24" s="4"/>
@@ -6129,7 +6106,6 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="15">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="V25" s="4"/>
@@ -6207,7 +6183,6 @@
         <v>1500</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V26" s="4"/>
@@ -6285,7 +6260,6 @@
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="15">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="V27" s="4"/>
@@ -6359,7 +6333,6 @@
         <v>1549.7</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="0"/>
         <v>58.9</v>
       </c>
       <c r="V28" s="4"/>
@@ -6435,7 +6408,6 @@
         <v>637</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="0"/>
         <v>120.4</v>
       </c>
       <c r="V29" s="4"/>
@@ -6509,7 +6481,6 @@
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="15">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="V30" s="4"/>
@@ -6581,7 +6552,6 @@
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="15">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="V31" s="4"/>
@@ -6659,7 +6629,6 @@
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="15">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="V32" s="4"/>
@@ -6735,7 +6704,6 @@
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="15">
-        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="V33" s="4"/>
@@ -6809,7 +6777,6 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="15">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="V34" s="4"/>
@@ -6889,7 +6856,6 @@
         <v>900</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="V35" s="4"/>
@@ -6965,7 +6931,6 @@
         <v>1250</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="V36" s="4"/>
@@ -7039,7 +7004,6 @@
         <v>329.3</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
       <c r="V37" s="4"/>
@@ -7115,7 +7079,6 @@
         <v>416.1</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="0"/>
         <v>90.2</v>
       </c>
       <c r="V38" s="4"/>
@@ -7195,7 +7158,6 @@
         <v>933.3</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="V39" s="4"/>
@@ -7273,7 +7235,6 @@
         <v>812.2</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="0"/>
         <v>114.4</v>
       </c>
       <c r="V40" s="4"/>
@@ -7351,7 +7312,6 @@
         <v>1100</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
       <c r="V41" s="4"/>
@@ -7425,7 +7385,6 @@
         <v>680.6</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="V42" s="4"/>
@@ -7501,7 +7460,6 @@
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="15">
-        <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
       <c r="V43" s="4"/>
@@ -7577,7 +7535,6 @@
       </c>
       <c r="T44" s="4"/>
       <c r="U44" s="15">
-        <f t="shared" si="0"/>
         <v>35.200000000000003</v>
       </c>
       <c r="V44" s="4"/>
@@ -7653,7 +7610,6 @@
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="15">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="V45" s="4"/>
@@ -7735,7 +7691,6 @@
         <v>698.5</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="0"/>
         <v>45.5</v>
       </c>
       <c r="V46" s="4"/>
@@ -7809,7 +7764,6 @@
         <v>566.70000000000005</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="0"/>
         <v>71.400000000000006</v>
       </c>
       <c r="V47" s="4"/>
@@ -7887,7 +7841,6 @@
         <v>800</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="V48" s="4"/>
@@ -7969,7 +7922,6 @@
       </c>
       <c r="T49" s="4"/>
       <c r="U49" s="15">
-        <f t="shared" si="0"/>
         <v>36.200000000000003</v>
       </c>
       <c r="V49" s="4"/>
@@ -8045,7 +7997,6 @@
         <v>622.20000000000005</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
       <c r="V50" s="4"/>
@@ -8125,7 +8076,6 @@
         <v>757.6</v>
       </c>
       <c r="U51" s="15">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="V51" s="4"/>
@@ -8201,7 +8151,6 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="15">
-        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="V52" s="4"/>
@@ -8277,7 +8226,6 @@
       </c>
       <c r="T53" s="4"/>
       <c r="U53" s="15">
-        <f t="shared" si="0"/>
         <v>58.1</v>
       </c>
       <c r="V53" s="4"/>
@@ -8355,7 +8303,6 @@
       </c>
       <c r="T54" s="4"/>
       <c r="U54" s="15">
-        <f t="shared" si="0"/>
         <v>65.099999999999994</v>
       </c>
       <c r="V54" s="4"/>
@@ -8433,7 +8380,6 @@
         <v>771.8</v>
       </c>
       <c r="U55" s="15">
-        <f t="shared" si="0"/>
         <v>30.1</v>
       </c>
       <c r="V55" s="4"/>
@@ -8497,7 +8443,6 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V56" s="4"/>
@@ -8569,7 +8514,6 @@
         <v>634.6</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="V57" s="4"/>
@@ -8647,7 +8591,6 @@
         <v>489.4</v>
       </c>
       <c r="U58" s="15">
-        <f t="shared" si="0"/>
         <v>32.299999999999997</v>
       </c>
       <c r="V58" s="4"/>
@@ -8709,7 +8652,6 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V59" s="4"/>
@@ -8771,7 +8713,6 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V60" s="4"/>
@@ -8843,7 +8784,6 @@
         <v>508.9</v>
       </c>
       <c r="U61" s="15">
-        <f t="shared" si="0"/>
         <v>22.9</v>
       </c>
       <c r="V61" s="4"/>
@@ -8909,7 +8849,6 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V62" s="4"/>
@@ -8971,7 +8910,6 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V63" s="4"/>
@@ -9043,7 +8981,6 @@
       </c>
       <c r="T64" s="4"/>
       <c r="U64" s="15">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="V64" s="4"/>
@@ -9105,7 +9042,6 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V65" s="4"/>
@@ -9173,7 +9109,6 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="15">
-        <f t="shared" ref="U66:U129" si="1">IFERROR(LEFT(Q66,FIND("k",Q66)-2)*1,0)</f>
         <v>64.37</v>
       </c>
       <c r="V66" s="4"/>
@@ -9245,7 +9180,6 @@
       </c>
       <c r="T67" s="4"/>
       <c r="U67" s="15">
-        <f t="shared" si="1"/>
         <v>41.2</v>
       </c>
       <c r="V67" s="4"/>
@@ -9319,7 +9253,6 @@
         <v>785.7</v>
       </c>
       <c r="U68" s="15">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="V68" s="4"/>
@@ -9395,7 +9328,6 @@
         <v>785.7</v>
       </c>
       <c r="U69" s="15">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="V69" s="4"/>
@@ -9469,7 +9401,6 @@
         <v>785.7</v>
       </c>
       <c r="U70" s="15">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="V70" s="4"/>
@@ -9545,7 +9476,6 @@
       </c>
       <c r="T71" s="4"/>
       <c r="U71" s="15">
-        <f t="shared" si="1"/>
         <v>60.35</v>
       </c>
       <c r="V71" s="4"/>
@@ -9621,7 +9551,6 @@
       </c>
       <c r="T72" s="4"/>
       <c r="U72" s="15">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="V72" s="4"/>
@@ -9699,7 +9628,6 @@
       </c>
       <c r="T73" s="4"/>
       <c r="U73" s="15">
-        <f t="shared" si="1"/>
         <v>14.24</v>
       </c>
       <c r="V73" s="4"/>
@@ -9771,7 +9699,6 @@
       </c>
       <c r="T74" s="4"/>
       <c r="U74" s="15">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="V74" s="4"/>
@@ -9843,7 +9770,6 @@
       </c>
       <c r="T75" s="4"/>
       <c r="U75" s="15">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="V75" s="4"/>
@@ -9917,7 +9843,6 @@
       </c>
       <c r="T76" s="4"/>
       <c r="U76" s="15">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="V76" s="4"/>
@@ -9991,7 +9916,6 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="15">
-        <f t="shared" si="1"/>
         <v>25.1</v>
       </c>
       <c r="V77" s="4"/>
@@ -10071,7 +9995,6 @@
       </c>
       <c r="T78" s="4"/>
       <c r="U78" s="15">
-        <f t="shared" si="1"/>
         <v>82.6</v>
       </c>
       <c r="V78" s="4"/>
@@ -10147,7 +10070,6 @@
       </c>
       <c r="T79" s="4"/>
       <c r="U79" s="15">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="V79" s="4"/>
@@ -10221,7 +10143,6 @@
         <v>666.7</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V80" s="4"/>
@@ -10297,7 +10218,6 @@
       </c>
       <c r="T81" s="4"/>
       <c r="U81" s="15">
-        <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
       <c r="V81" s="4"/>
@@ -10373,7 +10293,6 @@
       </c>
       <c r="T82" s="4"/>
       <c r="U82" s="15">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V82" s="4"/>
@@ -10449,7 +10368,6 @@
       </c>
       <c r="T83" s="4"/>
       <c r="U83" s="15">
-        <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
       <c r="V83" s="4"/>
@@ -10525,7 +10443,6 @@
       </c>
       <c r="T84" s="4"/>
       <c r="U84" s="15">
-        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
       <c r="V84" s="4"/>
@@ -10603,7 +10520,6 @@
         <v>2145</v>
       </c>
       <c r="U85" s="15">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="V85" s="4"/>
@@ -10683,7 +10599,6 @@
       </c>
       <c r="T86" s="4"/>
       <c r="U86" s="15">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="V86" s="4"/>
@@ -10757,7 +10672,6 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="15">
-        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="V87" s="4"/>
@@ -10831,7 +10745,6 @@
         <v>700</v>
       </c>
       <c r="U88" s="15">
-        <f t="shared" si="1"/>
         <v>63.1</v>
       </c>
       <c r="V88" s="4"/>
@@ -10909,7 +10822,6 @@
       </c>
       <c r="T89" s="4"/>
       <c r="U89" s="15">
-        <f t="shared" si="1"/>
         <v>89.6</v>
       </c>
       <c r="V89" s="4"/>
@@ -10981,7 +10893,6 @@
       </c>
       <c r="T90" s="4"/>
       <c r="U90" s="15">
-        <f t="shared" si="1"/>
         <v>24.14</v>
       </c>
       <c r="V90" s="4"/>
@@ -11057,7 +10968,6 @@
         <v>607.1</v>
       </c>
       <c r="U91" s="15">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="V91" s="4"/>
@@ -11135,7 +11045,6 @@
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="15">
-        <f t="shared" si="1"/>
         <v>14.48</v>
       </c>
       <c r="V92" s="4"/>
@@ -11213,7 +11122,6 @@
       </c>
       <c r="T93" s="4"/>
       <c r="U93" s="15">
-        <f t="shared" si="1"/>
         <v>72.7</v>
       </c>
       <c r="V93" s="4"/>
@@ -11291,7 +11199,6 @@
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="15">
-        <f t="shared" si="1"/>
         <v>72.7</v>
       </c>
       <c r="V94" s="4"/>
@@ -11367,7 +11274,6 @@
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="15">
-        <f t="shared" si="1"/>
         <v>72.7</v>
       </c>
       <c r="V95" s="4"/>
@@ -11437,7 +11343,6 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="15">
-        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
       <c r="V96" s="4"/>
@@ -11511,7 +11416,6 @@
       </c>
       <c r="T97" s="4"/>
       <c r="U97" s="15">
-        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="V97" s="4"/>
@@ -11589,7 +11493,6 @@
       </c>
       <c r="T98" s="4"/>
       <c r="U98" s="15">
-        <f t="shared" si="1"/>
         <v>15.3</v>
       </c>
       <c r="V98" s="4"/>
@@ -11663,7 +11566,6 @@
         <v>300</v>
       </c>
       <c r="U99" s="15">
-        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="V99" s="4"/>
@@ -11729,7 +11631,6 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V100" s="4"/>
@@ -11803,7 +11704,6 @@
       </c>
       <c r="T101" s="4"/>
       <c r="U101" s="15">
-        <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
       <c r="V101" s="4"/>
@@ -11883,7 +11783,6 @@
       </c>
       <c r="T102" s="4"/>
       <c r="U102" s="15">
-        <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
       <c r="V102" s="4"/>
@@ -11963,7 +11862,6 @@
       </c>
       <c r="T103" s="4"/>
       <c r="U103" s="15">
-        <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
       <c r="V103" s="4"/>
@@ -12041,7 +11939,6 @@
       </c>
       <c r="T104" s="4"/>
       <c r="U104" s="15">
-        <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
       <c r="V104" s="4"/>
@@ -12119,7 +12016,6 @@
       </c>
       <c r="T105" s="4"/>
       <c r="U105" s="15">
-        <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
       <c r="V105" s="4"/>
@@ -12193,7 +12089,6 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="15">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="V106" s="4"/>
@@ -12269,7 +12164,6 @@
       </c>
       <c r="T107" s="4"/>
       <c r="U107" s="15">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V107" s="4"/>
@@ -12347,7 +12241,6 @@
       </c>
       <c r="T108" s="4"/>
       <c r="U108" s="15">
-        <f t="shared" si="1"/>
         <v>15.7</v>
       </c>
       <c r="V108" s="4"/>
@@ -12423,7 +12316,6 @@
       </c>
       <c r="T109" s="4"/>
       <c r="U109" s="15">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="V109" s="4"/>
@@ -12497,7 +12389,6 @@
       </c>
       <c r="T110" s="4"/>
       <c r="U110" s="15">
-        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="V110" s="4"/>
@@ -12571,7 +12462,6 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V111" s="4"/>
@@ -12647,7 +12537,6 @@
       </c>
       <c r="T112" s="4"/>
       <c r="U112" s="15">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="V112" s="4"/>
@@ -12721,7 +12610,6 @@
       </c>
       <c r="T113" s="4"/>
       <c r="U113" s="15">
-        <f t="shared" si="1"/>
         <v>28.9</v>
       </c>
       <c r="V113" s="4"/>
@@ -12791,7 +12679,6 @@
       </c>
       <c r="T114" s="4"/>
       <c r="U114" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V114" s="4"/>
@@ -12865,7 +12752,6 @@
         <v>582.9</v>
       </c>
       <c r="U115" s="15">
-        <f t="shared" si="1"/>
         <v>23.9</v>
       </c>
       <c r="V115" s="4"/>
@@ -12945,7 +12831,6 @@
         <v>470</v>
       </c>
       <c r="U116" s="15">
-        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="V116" s="4"/>
@@ -13023,7 +12908,6 @@
       </c>
       <c r="T117" s="4"/>
       <c r="U117" s="15">
-        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="V117" s="4"/>
@@ -13087,7 +12971,6 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V118" s="4"/>
@@ -13157,7 +13040,6 @@
       </c>
       <c r="T119" s="4"/>
       <c r="U119" s="15">
-        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="V119" s="4"/>
@@ -13225,7 +13107,6 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="15">
-        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="V120" s="4"/>
@@ -13295,7 +13176,6 @@
       </c>
       <c r="T121" s="4"/>
       <c r="U121" s="15">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="V121" s="4"/>
@@ -13357,7 +13237,6 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
       <c r="U122" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V122" s="4"/>
@@ -13425,7 +13304,6 @@
       </c>
       <c r="T123" s="4"/>
       <c r="U123" s="15">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="V123" s="4"/>
@@ -13489,7 +13367,6 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
       <c r="U124" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V124" s="4"/>
@@ -13555,7 +13432,6 @@
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
       <c r="U125" s="15">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="V125" s="4"/>
@@ -13623,7 +13499,6 @@
       </c>
       <c r="T126" s="4"/>
       <c r="U126" s="15">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="V126" s="4"/>
@@ -13691,7 +13566,6 @@
       </c>
       <c r="T127" s="4"/>
       <c r="U127" s="15">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="V127" s="4"/>
@@ -13759,7 +13633,6 @@
       </c>
       <c r="T128" s="4"/>
       <c r="U128" s="15">
-        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="V128" s="4"/>
@@ -13827,7 +13700,6 @@
       </c>
       <c r="T129" s="4"/>
       <c r="U129" s="15">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="V129" s="4"/>
@@ -13895,7 +13767,6 @@
       </c>
       <c r="T130" s="4"/>
       <c r="U130" s="15">
-        <f t="shared" ref="U130:U193" si="2">IFERROR(LEFT(Q130,FIND("k",Q130)-2)*1,0)</f>
         <v>0</v>
       </c>
       <c r="V130" s="4"/>
@@ -13963,7 +13834,6 @@
       </c>
       <c r="T131" s="4"/>
       <c r="U131" s="15">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="V131" s="4"/>
@@ -14029,7 +13899,6 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="15">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="V132" s="4"/>
@@ -14095,7 +13964,6 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="15">
-        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="V133" s="4"/>
@@ -14159,7 +14027,6 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
       <c r="U134" s="15">
-        <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
       <c r="V134" s="4"/>
@@ -14225,7 +14092,6 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
       <c r="U135" s="15">
-        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="V135" s="4"/>
@@ -14293,7 +14159,6 @@
       </c>
       <c r="T136" s="4"/>
       <c r="U136" s="15">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="V136" s="4"/>
@@ -14361,7 +14226,6 @@
       </c>
       <c r="T137" s="4"/>
       <c r="U137" s="15">
-        <f t="shared" si="2"/>
         <v>83.6</v>
       </c>
       <c r="V137" s="4"/>
@@ -14431,7 +14295,6 @@
       </c>
       <c r="T138" s="4"/>
       <c r="U138" s="15">
-        <f t="shared" si="2"/>
         <v>83.6</v>
       </c>
       <c r="V138" s="4"/>
@@ -14499,7 +14362,6 @@
       </c>
       <c r="T139" s="4"/>
       <c r="U139" s="15">
-        <f t="shared" si="2"/>
         <v>83.6</v>
       </c>
       <c r="V139" s="4"/>
@@ -14567,7 +14429,6 @@
       </c>
       <c r="T140" s="4"/>
       <c r="U140" s="15">
-        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="V140" s="4"/>
@@ -14635,7 +14496,6 @@
       </c>
       <c r="T141" s="4"/>
       <c r="U141" s="15">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="V141" s="4"/>
@@ -14703,7 +14563,6 @@
       </c>
       <c r="T142" s="4"/>
       <c r="U142" s="15">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="V142" s="4"/>
@@ -14769,7 +14628,6 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
       <c r="U143" s="15">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="V143" s="4"/>
@@ -14839,7 +14697,6 @@
       </c>
       <c r="T144" s="4"/>
       <c r="U144" s="15">
-        <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
       <c r="V144" s="4"/>
@@ -14905,7 +14762,6 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
       <c r="U145" s="15">
-        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="V145" s="4"/>
@@ -14969,7 +14825,6 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
       <c r="U146" s="15">
-        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="V146" s="4"/>
@@ -15033,7 +14888,6 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
       <c r="U147" s="15">
-        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="V147" s="4"/>
@@ -15095,7 +14949,6 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="15">
-        <f t="shared" si="2"/>
         <v>22.4</v>
       </c>
       <c r="V148" s="4"/>
@@ -15159,7 +15012,6 @@
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
       <c r="U149" s="15">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="V149" s="4"/>
@@ -15223,7 +15075,6 @@
       <c r="S150" s="4"/>
       <c r="T150" s="4"/>
       <c r="U150" s="15">
-        <f t="shared" si="2"/>
         <v>31.2</v>
       </c>
       <c r="V150" s="4"/>
@@ -15291,7 +15142,6 @@
       </c>
       <c r="T151" s="4"/>
       <c r="U151" s="15">
-        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="V151" s="4"/>
@@ -15359,7 +15209,6 @@
       </c>
       <c r="T152" s="4"/>
       <c r="U152" s="15">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="V152" s="4"/>
@@ -15427,7 +15276,6 @@
       </c>
       <c r="T153" s="4"/>
       <c r="U153" s="15">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="V153" s="4"/>
@@ -15497,7 +15345,6 @@
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
       <c r="U154" s="15">
-        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="V154" s="4"/>
@@ -15565,7 +15412,6 @@
       </c>
       <c r="T155" s="4"/>
       <c r="U155" s="15">
-        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="V155" s="4"/>
@@ -15635,7 +15481,6 @@
       </c>
       <c r="T156" s="4"/>
       <c r="U156" s="15">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="V156" s="4"/>
@@ -15701,7 +15546,6 @@
       </c>
       <c r="T157" s="4"/>
       <c r="U157" s="15">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V157" s="4"/>
@@ -15763,7 +15607,6 @@
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
       <c r="U158" s="15">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="V158" s="4"/>
@@ -15827,7 +15670,6 @@
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
       <c r="U159" s="15">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="V159" s="4"/>
@@ -15893,7 +15735,6 @@
       </c>
       <c r="T160" s="4"/>
       <c r="U160" s="15">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V160" s="4"/>
@@ -15959,7 +15800,6 @@
       </c>
       <c r="T161" s="4"/>
       <c r="U161" s="15">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="V161" s="4"/>
@@ -16025,7 +15865,6 @@
       </c>
       <c r="T162" s="4"/>
       <c r="U162" s="15">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V162" s="4"/>
@@ -16089,7 +15928,6 @@
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
       <c r="U163" s="15">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="V163" s="4"/>
@@ -16155,7 +15993,6 @@
       </c>
       <c r="T164" s="4"/>
       <c r="U164" s="15">
-        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="V164" s="4"/>
@@ -16219,7 +16056,6 @@
       </c>
       <c r="T165" s="4"/>
       <c r="U165" s="15">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V165" s="4"/>
@@ -16283,7 +16119,6 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
       <c r="U166" s="15">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V166" s="4"/>
@@ -16349,7 +16184,6 @@
       </c>
       <c r="T167" s="4"/>
       <c r="U167" s="15">
-        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="V167" s="4"/>
@@ -16415,7 +16249,6 @@
       </c>
       <c r="T168" s="4"/>
       <c r="U168" s="15">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V168" s="4"/>
@@ -16479,7 +16312,6 @@
       </c>
       <c r="T169" s="4"/>
       <c r="U169" s="15">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="V169" s="4"/>
@@ -16537,7 +16369,6 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
       <c r="U170" s="15">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V170" s="4"/>
@@ -16597,7 +16428,6 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
       <c r="U171" s="15">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V171" s="4"/>
@@ -16665,7 +16495,6 @@
       </c>
       <c r="T172" s="4"/>
       <c r="U172" s="15">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V172" s="4"/>
@@ -16731,7 +16560,6 @@
       </c>
       <c r="T173" s="4"/>
       <c r="U173" s="15">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V173" s="4"/>
@@ -16801,7 +16629,6 @@
       </c>
       <c r="T174" s="4"/>
       <c r="U174" s="15">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="V174" s="4"/>
@@ -16869,7 +16696,6 @@
       </c>
       <c r="T175" s="4"/>
       <c r="U175" s="15">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V175" s="4"/>
@@ -16939,7 +16765,6 @@
       </c>
       <c r="T176" s="4"/>
       <c r="U176" s="15">
-        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="V176" s="4"/>
@@ -17007,7 +16832,6 @@
       </c>
       <c r="T177" s="4"/>
       <c r="U177" s="15">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V177" s="4"/>
@@ -17073,7 +16897,6 @@
       </c>
       <c r="T178" s="4"/>
       <c r="U178" s="15">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="V178" s="4"/>
@@ -17139,7 +16962,6 @@
       </c>
       <c r="T179" s="4"/>
       <c r="U179" s="15">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="V179" s="4"/>
@@ -17201,7 +17023,6 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="15">
-        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="V180" s="4"/>
@@ -17265,7 +17086,6 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="15">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="V181" s="4"/>
@@ -17335,7 +17155,6 @@
       </c>
       <c r="T182" s="4"/>
       <c r="U182" s="15">
-        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="V182" s="4"/>
@@ -17409,7 +17228,6 @@
       </c>
       <c r="T183" s="4"/>
       <c r="U183" s="15">
-        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="V183" s="4"/>
@@ -17481,7 +17299,6 @@
       </c>
       <c r="T184" s="4"/>
       <c r="U184" s="15">
-        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="V184" s="4"/>
@@ -17547,7 +17364,6 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
       <c r="U185" s="15">
-        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="V185" s="4"/>
@@ -17613,7 +17429,6 @@
       </c>
       <c r="T186" s="4"/>
       <c r="U186" s="15">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="V186" s="4"/>
@@ -17679,7 +17494,6 @@
       </c>
       <c r="T187" s="4"/>
       <c r="U187" s="15">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V187" s="4"/>
@@ -17745,7 +17559,6 @@
       </c>
       <c r="T188" s="4"/>
       <c r="U188" s="15">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="V188" s="4"/>
@@ -17807,7 +17620,6 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
       <c r="U189" s="15">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="V189" s="4"/>
@@ -17867,7 +17679,6 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="U190" s="15">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V190" s="4"/>
@@ -17931,7 +17742,6 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="15">
-        <f t="shared" si="2"/>
         <v>21.8</v>
       </c>
       <c r="V191" s="4"/>
@@ -17993,7 +17803,6 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="U192" s="15">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="V192" s="4"/>
@@ -18057,7 +17866,6 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
       <c r="U193" s="15">
-        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="V193" s="4"/>
@@ -18125,7 +17933,6 @@
       </c>
       <c r="T194" s="4"/>
       <c r="U194" s="15">
-        <f t="shared" ref="U194:U257" si="3">IFERROR(LEFT(Q194,FIND("k",Q194)-2)*1,0)</f>
         <v>17</v>
       </c>
       <c r="V194" s="4"/>
@@ -18191,7 +17998,6 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="U195" s="15">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="V195" s="4"/>
@@ -18257,7 +18063,6 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
       <c r="U196" s="15">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="V196" s="4"/>
@@ -18325,7 +18130,6 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="U197" s="15">
-        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="V197" s="4"/>
@@ -18389,7 +18193,6 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="U198" s="15">
-        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
       <c r="V198" s="4"/>
@@ -18455,7 +18258,6 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
       <c r="U199" s="15">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="V199" s="4"/>
@@ -18519,7 +18321,6 @@
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
       <c r="U200" s="15">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V200" s="4"/>
@@ -18583,7 +18384,6 @@
       <c r="S201" s="4"/>
       <c r="T201" s="4"/>
       <c r="U201" s="15">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="V201" s="4"/>
@@ -18649,7 +18449,6 @@
       <c r="S202" s="4"/>
       <c r="T202" s="4"/>
       <c r="U202" s="15">
-        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
       <c r="V202" s="4"/>
@@ -18715,7 +18514,6 @@
       <c r="S203" s="4"/>
       <c r="T203" s="4"/>
       <c r="U203" s="15">
-        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="V203" s="4"/>
@@ -18777,7 +18575,6 @@
       <c r="S204" s="4"/>
       <c r="T204" s="4"/>
       <c r="U204" s="15">
-        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="V204" s="4"/>
@@ -18841,7 +18638,6 @@
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
       <c r="U205" s="15">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="V205" s="4"/>
@@ -18907,7 +18703,6 @@
       <c r="S206" s="4"/>
       <c r="T206" s="4"/>
       <c r="U206" s="15">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="V206" s="4"/>
@@ -18973,7 +18768,6 @@
       <c r="S207" s="4"/>
       <c r="T207" s="4"/>
       <c r="U207" s="15">
-        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="V207" s="4"/>
@@ -19039,7 +18833,6 @@
       <c r="S208" s="4"/>
       <c r="T208" s="4"/>
       <c r="U208" s="15">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="V208" s="4"/>
@@ -19105,7 +18898,6 @@
       </c>
       <c r="T209" s="4"/>
       <c r="U209" s="15">
-        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="V209" s="4"/>
@@ -19173,7 +18965,6 @@
       </c>
       <c r="T210" s="4"/>
       <c r="U210" s="15">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="V210" s="4"/>
@@ -19241,7 +19032,6 @@
       </c>
       <c r="T211" s="4"/>
       <c r="U211" s="15">
-        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="V211" s="4"/>
@@ -19313,7 +19103,6 @@
       </c>
       <c r="T212" s="4"/>
       <c r="U212" s="15">
-        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="V212" s="4"/>
@@ -19379,7 +19168,6 @@
       </c>
       <c r="T213" s="4"/>
       <c r="U213" s="15">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="V213" s="4"/>
@@ -19449,7 +19237,6 @@
       </c>
       <c r="T214" s="8"/>
       <c r="U214" s="15">
-        <f t="shared" si="3"/>
         <v>55.4</v>
       </c>
       <c r="V214" s="18"/>
@@ -19519,7 +19306,6 @@
       </c>
       <c r="T215" s="8"/>
       <c r="U215" s="15">
-        <f t="shared" si="3"/>
         <v>80.45</v>
       </c>
       <c r="V215" s="18"/>
@@ -19587,7 +19373,6 @@
       </c>
       <c r="T216" s="8"/>
       <c r="U216" s="15">
-        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="V216" s="18"/>
@@ -19657,7 +19442,6 @@
       </c>
       <c r="T217" s="8"/>
       <c r="U217" s="15">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="V217" s="18"/>
@@ -19729,7 +19513,6 @@
       </c>
       <c r="T218" s="8"/>
       <c r="U218" s="15">
-        <f t="shared" si="3"/>
         <v>67.400000000000006</v>
       </c>
       <c r="V218" s="18"/>
@@ -19799,7 +19582,6 @@
       </c>
       <c r="T219" s="8"/>
       <c r="U219" s="15">
-        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="V219" s="18"/>
@@ -19869,7 +19651,6 @@
       </c>
       <c r="T220" s="8"/>
       <c r="U220" s="15">
-        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="V220" s="18"/>
@@ -19943,7 +19724,6 @@
       </c>
       <c r="T221" s="8"/>
       <c r="U221" s="15">
-        <f t="shared" si="3"/>
         <v>70.3</v>
       </c>
       <c r="V221" s="18"/>
@@ -20017,7 +19797,6 @@
       </c>
       <c r="T222" s="8"/>
       <c r="U222" s="15">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="V222" s="18"/>
@@ -20089,7 +19868,6 @@
       </c>
       <c r="T223" s="8"/>
       <c r="U223" s="15">
-        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="V223" s="18"/>
@@ -20159,7 +19937,6 @@
       </c>
       <c r="T224" s="8"/>
       <c r="U224" s="15">
-        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="V224" s="18"/>
@@ -20229,7 +20006,6 @@
       </c>
       <c r="T225" s="8"/>
       <c r="U225" s="15">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="V225" s="18"/>
@@ -20299,7 +20075,6 @@
       </c>
       <c r="T226" s="8"/>
       <c r="U226" s="15">
-        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="V226" s="18"/>
@@ -20371,7 +20146,6 @@
       </c>
       <c r="T227" s="8"/>
       <c r="U227" s="15">
-        <f t="shared" si="3"/>
         <v>42.2</v>
       </c>
       <c r="V227" s="18"/>
@@ -20445,7 +20219,6 @@
       </c>
       <c r="T228" s="8"/>
       <c r="U228" s="15">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="V228" s="18"/>
@@ -20515,7 +20288,6 @@
       </c>
       <c r="T229" s="8"/>
       <c r="U229" s="15">
-        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="V229" s="18"/>
@@ -20585,7 +20357,6 @@
       </c>
       <c r="T230" s="8"/>
       <c r="U230" s="15">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="V230" s="18"/>
@@ -20655,7 +20426,6 @@
       </c>
       <c r="T231" s="8"/>
       <c r="U231" s="15">
-        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="V231" s="18"/>
@@ -20725,7 +20495,6 @@
       </c>
       <c r="T232" s="8"/>
       <c r="U232" s="15">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="V232" s="18"/>
@@ -20795,7 +20564,6 @@
       </c>
       <c r="T233" s="8"/>
       <c r="U233" s="15">
-        <f t="shared" si="3"/>
         <v>10.23</v>
       </c>
       <c r="V233" s="18"/>
@@ -20865,7 +20633,6 @@
       </c>
       <c r="T234" s="8"/>
       <c r="U234" s="15">
-        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
       <c r="V234" s="18"/>
@@ -20937,7 +20704,6 @@
         <v>990</v>
       </c>
       <c r="U235" s="15">
-        <f t="shared" si="3"/>
         <v>18.2</v>
       </c>
       <c r="V235" s="18"/>
@@ -21011,7 +20777,6 @@
         <v>839</v>
       </c>
       <c r="U236" s="15">
-        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
       <c r="V236" s="18"/>
@@ -21083,7 +20848,6 @@
         <v>1050</v>
       </c>
       <c r="U237" s="15">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V237" s="21"/>
@@ -21155,7 +20919,6 @@
         <v>1250</v>
       </c>
       <c r="U238" s="15">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="V238" s="18"/>
@@ -21229,7 +20992,6 @@
         <v>837</v>
       </c>
       <c r="U239" s="15">
-        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="V239" s="23"/>
@@ -21297,7 +21059,6 @@
       </c>
       <c r="T240" s="8"/>
       <c r="U240" s="15">
-        <f t="shared" si="3"/>
         <v>12.1</v>
       </c>
       <c r="V240" s="24"/>
@@ -21365,7 +21126,6 @@
       </c>
       <c r="T241" s="8"/>
       <c r="U241" s="15">
-        <f t="shared" si="3"/>
         <v>12.3</v>
       </c>
       <c r="V241" s="24"/>
@@ -21437,7 +21197,6 @@
         <v>1000</v>
       </c>
       <c r="U242" s="15">
-        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
       <c r="V242" s="15"/>
@@ -21511,7 +21270,6 @@
         <v>613</v>
       </c>
       <c r="U243" s="15">
-        <f t="shared" si="3"/>
         <v>10.62</v>
       </c>
       <c r="V243" s="15"/>
@@ -21577,7 +21335,6 @@
       <c r="S244" s="8"/>
       <c r="T244" s="8"/>
       <c r="U244" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V244" s="25"/>
@@ -21639,7 +21396,6 @@
       <c r="S245" s="8"/>
       <c r="T245" s="8"/>
       <c r="U245" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V245" s="25"/>
@@ -21701,7 +21457,6 @@
       <c r="S246" s="8"/>
       <c r="T246" s="8"/>
       <c r="U246" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V246" s="25"/>
@@ -21763,7 +21518,6 @@
       <c r="S247" s="8"/>
       <c r="T247" s="8"/>
       <c r="U247" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V247" s="25"/>
@@ -21825,7 +21579,6 @@
       <c r="S248" s="8"/>
       <c r="T248" s="8"/>
       <c r="U248" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V248" s="25"/>
@@ -21887,7 +21640,6 @@
       <c r="S249" s="8"/>
       <c r="T249" s="8"/>
       <c r="U249" s="15">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V249" s="25"/>
@@ -21961,7 +21713,6 @@
       </c>
       <c r="T250" s="26"/>
       <c r="U250" s="15">
-        <f t="shared" si="3"/>
         <v>251.2</v>
       </c>
       <c r="V250" s="26">
@@ -22043,7 +21794,6 @@
       </c>
       <c r="T251" s="15"/>
       <c r="U251" s="15">
-        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="V251" s="15"/>
@@ -22117,7 +21867,6 @@
       </c>
       <c r="T252" s="15"/>
       <c r="U252" s="15">
-        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="V252" s="15"/>
@@ -22191,7 +21940,6 @@
       </c>
       <c r="T253" s="15"/>
       <c r="U253" s="15">
-        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="V253" s="15"/>
@@ -22261,7 +22009,6 @@
       </c>
       <c r="T254" s="9"/>
       <c r="U254" s="15">
-        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="V254" s="9"/>
@@ -22345,7 +22092,6 @@
       </c>
       <c r="T255" s="9"/>
       <c r="U255" s="15">
-        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="V255" s="9"/>
@@ -22427,7 +22173,6 @@
       </c>
       <c r="T256" s="9"/>
       <c r="U256" s="15">
-        <f t="shared" si="3"/>
         <v>126.46</v>
       </c>
       <c r="V256" s="9"/>
@@ -22505,7 +22250,6 @@
       </c>
       <c r="T257" s="9"/>
       <c r="U257" s="15">
-        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="V257" s="9"/>
@@ -22579,7 +22323,6 @@
       </c>
       <c r="T258" s="9"/>
       <c r="U258" s="15">
-        <f t="shared" ref="U258:U300" si="4">IFERROR(LEFT(Q258,FIND("k",Q258)-2)*1,0)</f>
         <v>114</v>
       </c>
       <c r="V258" s="9"/>
@@ -22653,7 +22396,6 @@
       </c>
       <c r="T259" s="9"/>
       <c r="U259" s="15">
-        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="V259" s="9"/>
@@ -22721,7 +22463,6 @@
       <c r="S260" s="9"/>
       <c r="T260" s="9"/>
       <c r="U260" s="15">
-        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="V260" s="9"/>
@@ -22789,7 +22530,6 @@
       <c r="S261" s="9"/>
       <c r="T261" s="9"/>
       <c r="U261" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V261" s="9"/>
@@ -22861,7 +22601,6 @@
       <c r="S262" s="9"/>
       <c r="T262" s="9"/>
       <c r="U262" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V262" s="9"/>
@@ -22933,7 +22672,6 @@
         <v>927</v>
       </c>
       <c r="U263" s="15">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="V263" s="9"/>
@@ -23003,7 +22741,6 @@
       </c>
       <c r="T264" s="9"/>
       <c r="U264" s="15">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V264" s="9"/>
@@ -23079,7 +22816,6 @@
       </c>
       <c r="T265" s="9"/>
       <c r="U265" s="15">
-        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="V265" s="38">
@@ -23153,7 +22889,6 @@
         <v>942</v>
       </c>
       <c r="U266" s="15">
-        <f t="shared" si="4"/>
         <v>45.32</v>
       </c>
       <c r="V266" s="9"/>
@@ -23227,7 +22962,6 @@
       </c>
       <c r="T267" s="9"/>
       <c r="U267" s="15">
-        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="V267" s="9"/>
@@ -23305,7 +23039,6 @@
       </c>
       <c r="T268" s="9"/>
       <c r="U268" s="15">
-        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="V268" s="9"/>
@@ -23381,7 +23114,6 @@
       </c>
       <c r="T269" s="9"/>
       <c r="U269" s="15">
-        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="V269" s="9"/>
@@ -23459,7 +23191,6 @@
       </c>
       <c r="T270" s="9"/>
       <c r="U270" s="15">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="V270" s="9"/>
@@ -23537,7 +23268,6 @@
       </c>
       <c r="T271" s="9"/>
       <c r="U271" s="15">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="V271" s="9"/>
@@ -23613,7 +23343,6 @@
       </c>
       <c r="T272" s="9"/>
       <c r="U272" s="15">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="V272" s="9"/>
@@ -23681,7 +23410,6 @@
       <c r="S273" s="9"/>
       <c r="T273" s="9"/>
       <c r="U273" s="15">
-        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="V273" s="9"/>
@@ -23751,7 +23479,6 @@
       </c>
       <c r="T274" s="18"/>
       <c r="U274" s="15">
-        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="V274" s="18"/>
@@ -23825,7 +23552,6 @@
       </c>
       <c r="T275" s="18"/>
       <c r="U275" s="15">
-        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="V275" s="18"/>
@@ -23897,7 +23623,6 @@
       </c>
       <c r="T276" s="18"/>
       <c r="U276" s="15">
-        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="V276" s="18"/>
@@ -23967,7 +23692,6 @@
       </c>
       <c r="T277" s="18"/>
       <c r="U277" s="15">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V277" s="18"/>
@@ -24039,7 +23763,6 @@
       </c>
       <c r="T278" s="18"/>
       <c r="U278" s="15">
-        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="V278" s="18"/>
@@ -24111,7 +23834,6 @@
       </c>
       <c r="T279" s="18"/>
       <c r="U279" s="15">
-        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="V279" s="18"/>
@@ -24177,7 +23899,6 @@
       <c r="S280" s="18"/>
       <c r="T280" s="18"/>
       <c r="U280" s="15">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V280" s="18"/>
@@ -24243,7 +23964,6 @@
       </c>
       <c r="T281" s="18"/>
       <c r="U281" s="15">
-        <f t="shared" si="4"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="V281" s="18"/>
@@ -24303,7 +24023,6 @@
       <c r="S282" s="18"/>
       <c r="T282" s="18"/>
       <c r="U282" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V282" s="18"/>
@@ -24367,7 +24086,6 @@
       <c r="S283" s="18"/>
       <c r="T283" s="18"/>
       <c r="U283" s="15">
-        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="V283" s="18"/>
@@ -24433,7 +24151,6 @@
       </c>
       <c r="T284" s="18"/>
       <c r="U284" s="15">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="V284" s="18"/>
@@ -24501,7 +24218,6 @@
       </c>
       <c r="T285" s="18"/>
       <c r="U285" s="15">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="V285" s="18"/>
@@ -24569,7 +24285,6 @@
       </c>
       <c r="T286" s="18"/>
       <c r="U286" s="15">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="V286" s="18"/>
@@ -24637,7 +24352,6 @@
       </c>
       <c r="T287" s="18"/>
       <c r="U287" s="15">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="V287" s="18"/>
@@ -24705,7 +24419,6 @@
       </c>
       <c r="T288" s="18"/>
       <c r="U288" s="15">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="V288" s="18"/>
@@ -24775,7 +24488,6 @@
       </c>
       <c r="T289" s="18"/>
       <c r="U289" s="15">
-        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="V289" s="18"/>
@@ -24843,7 +24555,6 @@
       </c>
       <c r="T290" s="18"/>
       <c r="U290" s="15">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="V290" s="18"/>
@@ -24907,7 +24618,6 @@
       </c>
       <c r="T291" s="18"/>
       <c r="U291" s="15">
-        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="V291" s="18"/>
@@ -24971,7 +24681,6 @@
       </c>
       <c r="T292" s="18"/>
       <c r="U292" s="15">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="V292" s="18"/>
@@ -25035,7 +24744,6 @@
       </c>
       <c r="T293" s="18"/>
       <c r="U293" s="15">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="V293" s="18"/>
@@ -25099,7 +24807,6 @@
       </c>
       <c r="T294" s="18"/>
       <c r="U294" s="15">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="V294" s="18"/>
@@ -25163,7 +24870,6 @@
       </c>
       <c r="T295" s="18"/>
       <c r="U295" s="15">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="V295" s="18"/>
@@ -25227,7 +24933,6 @@
       </c>
       <c r="T296" s="18"/>
       <c r="U296" s="15">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="V296" s="18"/>
@@ -25291,7 +24996,6 @@
       </c>
       <c r="T297" s="18"/>
       <c r="U297" s="15">
-        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="V297" s="18"/>
@@ -25355,7 +25059,6 @@
       </c>
       <c r="T298" s="18"/>
       <c r="U298" s="15">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="V298" s="18"/>
@@ -25419,7 +25122,6 @@
       </c>
       <c r="T299" s="18"/>
       <c r="U299" s="15">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V299" s="18"/>
@@ -25483,7 +25185,6 @@
       </c>
       <c r="T300" s="18"/>
       <c r="U300" s="15">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V300" s="18"/>

--- a/Datasets/BRT.xlsx
+++ b/Datasets/BRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.shabani\Documents\GitHub\Transit-Dashboard\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED73B9A-BC8D-4DB3-9DC6-66EFBBC007BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96522C41-BC31-4EE7-B51B-CD5662E07170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="1205">
   <si>
     <t>State/province</t>
   </si>
@@ -3674,9 +3674,6 @@
   </si>
   <si>
     <t>25 (corridor1&amp;2) km</t>
-  </si>
-  <si>
-    <t>1.13,</t>
   </si>
   <si>
     <t>Chongqing</t>
@@ -4373,7 +4370,7 @@
       <pane xSplit="2" ySplit="292" topLeftCell="E293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19641,11 +19638,11 @@
     <row r="218" spans="1:32">
       <c r="A218" s="4"/>
       <c r="B218" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C218" s="8"/>
       <c r="D218" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E218" s="64">
         <v>29.563700000000001</v>
@@ -20749,7 +20746,7 @@
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E234" s="8">
         <v>31.166699999999999</v>
@@ -22310,8 +22307,8 @@
       <c r="D257" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="E257" s="64" t="s">
-        <v>1202</v>
+      <c r="E257" s="64">
+        <v>1.1299999999999999</v>
       </c>
       <c r="F257" s="64">
         <v>104.053056</v>
